--- a/trunk/TPs CPOO/Gareth & Maxime/Projet/FichierTest.xlsx
+++ b/trunk/TPs CPOO/Gareth & Maxime/Projet/FichierTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21840" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Fichier de test : Projet Canon Noir</t>
   </si>
@@ -27,9 +27,6 @@
     <t>tests d'Integration</t>
   </si>
   <si>
-    <t>tests système</t>
-  </si>
-  <si>
     <t>Havez Maxime</t>
   </si>
   <si>
@@ -160,13 +157,28 @@
   </si>
   <si>
     <t>2- Situation de Tir lorsque l'attaquant et l'attaqué se retrouvent sur la même ligne (colonne), ce qui entraine une division par zéro dans l'aglorithme donné</t>
+  </si>
+  <si>
+    <t>3-Si après avoir lancé les dés on clique sur une case, autre que celle d'un bateau, le moteur gère bien l'erreur mais l'affichage demande de selectionner une case en surbrillance</t>
+  </si>
+  <si>
+    <t>tests systèmes</t>
+  </si>
+  <si>
+    <t>1- Si on lance les dés, et que plutôt que de selectionner une case en surbrillance on clic sur une autre case, on peut alors recliquer sur le lancer dé et alors le joueur passe son tour et il y a des situations de plantage</t>
+  </si>
+  <si>
+    <t>2- Lorsque l'on est avec trois joueurs, on ne peut pas sélectionner la couleur BLEU, car elle est destinée au joueur 4 qui est disable</t>
+  </si>
+  <si>
+    <t>Nous avons relevé les tests systèmes qui sont des situations de plantage. Les autres tests système ont été réalisés avec succès.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -235,12 +247,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -353,6 +383,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,309 +559,353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D38:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="8"/>
     <col min="4" max="4" width="94.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="B18" s="1" t="s">
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="B19" s="1" t="s">
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="30">
-      <c r="B33" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30">
-      <c r="D34" s="1" t="s">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A40:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/TPs CPOO/Gareth & Maxime/Projet/FichierTest.xlsx
+++ b/trunk/TPs CPOO/Gareth & Maxime/Projet/FichierTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Fichier de test : Projet Canon Noir</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>Nous avons relevé les tests systèmes qui sont des situations de plantage. Les autres tests système ont été réalisés avec succès.</t>
+  </si>
+  <si>
+    <t>Accès à l'histogramme via la facade</t>
+  </si>
+  <si>
+    <t>Accès en dehors de la taille du tableau de joueur</t>
+  </si>
+  <si>
+    <t>Message d'erreur</t>
+  </si>
+  <si>
+    <t>Le bateau2 n'est pas initialisé dans le cas de 3 ou 4 joueurs</t>
+  </si>
+  <si>
+    <t>Accès au bateau2 dans le cas où nombre de joueur est différent de 2</t>
   </si>
 </sst>
 </file>
@@ -560,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,142 +760,172 @@
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A43:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/TPs CPOO/Gareth & Maxime/Projet/FichierTest.xlsx
+++ b/trunk/TPs CPOO/Gareth & Maxime/Projet/FichierTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21840" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21840" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
-  <si>
-    <t>Fichier de test : Projet Canon Noir</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>tests Unitaires</t>
   </si>
@@ -27,12 +24,6 @@
     <t>tests d'Integration</t>
   </si>
   <si>
-    <t>Havez Maxime</t>
-  </si>
-  <si>
-    <t>Thiveux Gareth</t>
-  </si>
-  <si>
     <t>Résultat</t>
   </si>
   <si>
@@ -187,13 +178,28 @@
   </si>
   <si>
     <t>Accès au bateau2 dans le cas où nombre de joueur est différent de 2</t>
+  </si>
+  <si>
+    <t>4-Si on arrive sur une case canon noir, et qu'au lieu que cliquer sur une case contenant un bateau, on clique sur lancer Dé, il y a situation de plantage</t>
+  </si>
+  <si>
+    <t>5-Problème d'affichage : si l'on possède un trésor et que l'on clique sur sa case port, bien qu'elle ne soit pas proposée dans les cases accessibles, le trésor est tout de même déposé.</t>
+  </si>
+  <si>
+    <t>Maxime HAVEZ</t>
+  </si>
+  <si>
+    <t>Gareth THIVEUX</t>
+  </si>
+  <si>
+    <t>Fichier de tests : Projet Canon Noir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +211,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -272,6 +285,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,349 +597,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="8"/>
-    <col min="4" max="4" width="94.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="8"/>
+    <col min="4" max="4" width="94.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="D35" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    <row r="43" spans="1:4" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C43" s="9"/>
+      <c r="D43" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -925,7 +958,7 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A44:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -938,7 +971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -950,7 +983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
